--- a/client/ClientDataDistribution.xlsx
+++ b/client/ClientDataDistribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yechixia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yechixia/UGTProject/client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DABFB0-32E6-2044-9515-27095F90B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19E81F-ABDF-A248-A90A-F0C1BDA33F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="900" windowWidth="36540" windowHeight="20900" xr2:uid="{BD0F0EDD-CEA9-B74B-AFA4-66AA0728B8C5}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{BD0F0EDD-CEA9-B74B-AFA4-66AA0728B8C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t>Label0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>Client6 (6:1:2:1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMSP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,29 +488,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -937,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC62596-3EF5-0A4C-A0B7-B913BC95518F}">
-  <dimension ref="A1:AY54"/>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R24" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -948,126 +1063,125 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
+    <row r="1" spans="1:50">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
       <c r="AX1" s="6"/>
     </row>
-    <row r="2" spans="1:51">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:50">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="10"/>
-    </row>
-    <row r="3" spans="1:51">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+    </row>
+    <row r="3" spans="1:50">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1158,27 +1272,8 @@
       <c r="AD3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-    </row>
-    <row r="4" spans="1:51" s="5" customFormat="1">
+    </row>
+    <row r="4" spans="1:50" s="5" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1282,27 +1377,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-    </row>
-    <row r="5" spans="1:51">
+    </row>
+    <row r="5" spans="1:50">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1319,7 +1395,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="G5" s="3">
         <v>750</v>
@@ -1393,27 +1469,8 @@
       <c r="AD5" s="3">
         <v>2</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-    </row>
-    <row r="6" spans="1:51">
+    </row>
+    <row r="6" spans="1:50">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1484,27 +1541,8 @@
       <c r="AD6" s="3">
         <v>2</v>
       </c>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-    </row>
-    <row r="7" spans="1:51">
+    </row>
+    <row r="7" spans="1:50">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1575,27 +1613,8 @@
       <c r="AD7" s="3">
         <v>0</v>
       </c>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-    </row>
-    <row r="8" spans="1:51">
+    </row>
+    <row r="8" spans="1:50">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1666,27 +1685,8 @@
       <c r="AD8" s="3">
         <v>2</v>
       </c>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-    </row>
-    <row r="9" spans="1:51">
+    </row>
+    <row r="9" spans="1:50">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1757,27 +1757,8 @@
       <c r="AD9" s="3">
         <v>2</v>
       </c>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-    </row>
-    <row r="10" spans="1:51">
+    </row>
+    <row r="10" spans="1:50">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1849,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:50">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1921,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:50">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1993,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:50">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2065,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:50">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2137,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:50">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2209,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:50">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3113,24 +3094,6 @@
     <mergeCell ref="Z2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K5:K18">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P24">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U15">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z54">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
